--- a/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Graduate-Student-Import-Excel.xlsx
+++ b/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Graduate-Student-Import-Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uylmz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2846A197-C85E-4254-9399-734036A01EC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F138478A-B33B-44D0-A0DC-A6EA2CA5FD7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C75C4C55-698C-4D32-97C5-CA6E7AD5A427}"/>
   </bookViews>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Öğrenci Numarası*</t>
+  </si>
+  <si>
+    <t>15-155-058</t>
+  </si>
+  <si>
+    <t>15-155-001</t>
+  </si>
+  <si>
+    <t>15-155-031</t>
   </si>
 </sst>
 </file>
@@ -387,9 +396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B13C0D3-F222-436D-8F9D-DBC11405EE86}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -401,6 +412,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Graduate-Student-Import-Excel.xlsx
+++ b/InternShip/InternShip.MvcUI/Documents/Imports/Uploaded/Graduate-Student-Import-Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uylmz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F138478A-B33B-44D0-A0DC-A6EA2CA5FD7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456EDC0-2996-4758-B362-5D3C87001E5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C75C4C55-698C-4D32-97C5-CA6E7AD5A427}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>Öğrenci Numarası*</t>
   </si>
   <si>
-    <t>15-155-058</t>
-  </si>
-  <si>
     <t>15-155-001</t>
   </si>
   <si>
-    <t>15-155-031</t>
+    <t>15-155-002</t>
+  </si>
+  <si>
+    <t>15-155-003</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
